--- a/kfatorial.xlsx
+++ b/kfatorial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Gráf1" sheetId="15" r:id="rId1"/>
@@ -540,13 +540,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -557,9 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,11 +808,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97323264"/>
-        <c:axId val="97341824"/>
+        <c:axId val="79110144"/>
+        <c:axId val="79112448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97323264"/>
+        <c:axId val="79110144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,14 +862,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97341824"/>
+        <c:crossAx val="79112448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97341824"/>
+        <c:axId val="79112448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,7 +919,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97323264"/>
+        <c:crossAx val="79110144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1000,7 +1000,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.25331933508311461"/>
-          <c:y val="2.777777777777779E-2"/>
+          <c:y val="2.7777777777777801E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -1070,11 +1070,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="97023488"/>
-        <c:axId val="97042432"/>
+        <c:axId val="79571968"/>
+        <c:axId val="79590528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97023488"/>
+        <c:axId val="79571968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1102,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1124,14 +1123,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97042432"/>
+        <c:crossAx val="79590528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97042432"/>
+        <c:axId val="79590528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1159,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1181,14 +1179,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97023488"/>
+        <c:crossAx val="79571968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1229,7 +1226,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1262,7 +1259,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1330,11 +1326,11 @@
         </c:ser>
         <c:hiLowLines/>
         <c:marker val="1"/>
-        <c:axId val="96698752"/>
-        <c:axId val="96700672"/>
+        <c:axId val="79623680"/>
+        <c:axId val="79625600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96698752"/>
+        <c:axId val="79623680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1358,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1384,14 +1379,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96700672"/>
+        <c:crossAx val="79625600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96700672"/>
+        <c:axId val="79625600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,7 +1415,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1441,14 +1435,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96698752"/>
+        <c:crossAx val="79623680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1489,7 +1482,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1523,7 +1516,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1590,11 +1582,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="97388800"/>
-        <c:axId val="97407360"/>
+        <c:axId val="79617408"/>
+        <c:axId val="79746560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97388800"/>
+        <c:axId val="79617408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1614,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1644,14 +1635,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97407360"/>
+        <c:crossAx val="79746560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97407360"/>
+        <c:axId val="79746560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1680,7 +1671,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -1701,14 +1691,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97388800"/>
+        <c:crossAx val="79617408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1749,7 +1738,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1782,7 +1771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1903,11 +1891,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97576448"/>
-        <c:axId val="97578368"/>
+        <c:axId val="79809152"/>
+        <c:axId val="79962880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97576448"/>
+        <c:axId val="79809152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1935,7 +1923,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1957,14 +1944,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97578368"/>
+        <c:crossAx val="79962880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97578368"/>
+        <c:axId val="79962880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +1980,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -2014,14 +2000,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97576448"/>
+        <c:crossAx val="79809152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2062,7 +2047,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000014" footer="0.31496062000000014"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000025" footer="0.31496062000000025"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2556,16 +2541,16 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="23" t="s">
         <v>37</v>
       </c>
       <c r="K1" s="20" t="s">
@@ -2989,17 +2974,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:101">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="CW1" s="6" t="s">
         <v>4</v>
       </c>
@@ -12185,20 +12170,20 @@
       </c>
     </row>
     <row r="33" spans="1:100">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="1:100">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
@@ -12605,11 +12590,11 @@
       </c>
     </row>
     <row r="36" spans="1:100">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
@@ -12916,13 +12901,13 @@
       </c>
     </row>
     <row r="39" spans="1:100">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
@@ -12931,13 +12916,13 @@
       <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:100">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="8"/>
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
@@ -13348,11 +13333,11 @@
       </c>
     </row>
     <row r="42" spans="1:100">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="8"/>
@@ -13665,24 +13650,24 @@
       </c>
     </row>
     <row r="45" spans="1:100">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:100">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:100">
       <c r="A47">
@@ -13691,13 +13676,13 @@
       </c>
     </row>
     <row r="48" spans="1:100">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:100">
       <c r="A49">
@@ -14002,22 +13987,22 @@
       </c>
     </row>
     <row r="51" spans="1:100">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
     </row>
     <row r="52" spans="1:100">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:100" s="9" customFormat="1">
       <c r="A53" s="8">
@@ -14030,13 +14015,13 @@
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:100" s="9" customFormat="1">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:100">
       <c r="A55" s="10">
@@ -14045,19 +14030,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A45:G45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -14090,10 +14075,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="13"/>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:12" ht="15.75">
       <c r="A2">
@@ -14111,10 +14096,10 @@
       <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
@@ -14134,10 +14119,10 @@
       <c r="G3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
@@ -14171,25 +14156,25 @@
       <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:12" ht="15.75">
       <c r="J9" s="11"/>
@@ -14321,8 +14306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14474,124 +14459,268 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.39639999999999997</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B15" s="1">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.37680000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B16" s="1">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.37230000000000002</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B17" s="1">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.3705</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.39460000000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.3765</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.372</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.37030000000000002</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.39190000000000003</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.3755</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.37169999999999997</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>100</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.37009999999999998</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.39750000000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B27" s="1">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.37680000000000002</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B28" s="1">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.37219999999999998</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B29" s="1">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.3705</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.39489999999999997</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.37640000000000001</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>60</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.372</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.37040000000000001</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.39229999999999998</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.3755</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.37159999999999999</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.37009999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -14746,7 +14875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
